--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="4050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,58 +16,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>First Name</t>
+    <t>UserName</t>
   </si>
   <si>
-    <t>Last Name</t>
+    <t>Password</t>
   </si>
   <si>
-    <t>Company Name</t>
+    <t>DemoSalesManager</t>
   </si>
   <si>
-    <t>Qeagle</t>
+    <t>crmsfa</t>
   </si>
   <si>
-    <t>Babu</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>babu@testleaf.com</t>
+    <t>DemoCSR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -108,21 +84,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,56 +395,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
